--- a/Code/Results/Cases/Case_5_133/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_133/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.23341606851217</v>
+        <v>15.38225564643511</v>
       </c>
       <c r="C2">
-        <v>6.612045693998464</v>
+        <v>7.466367187507856</v>
       </c>
       <c r="D2">
-        <v>4.514604457654016</v>
+        <v>4.458777462262016</v>
       </c>
       <c r="E2">
-        <v>6.503320209862492</v>
+        <v>11.36521475653975</v>
       </c>
       <c r="F2">
-        <v>66.45754811623486</v>
+        <v>60.79824859264365</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.49089404062276</v>
+        <v>10.83153443283545</v>
       </c>
       <c r="K2">
-        <v>11.21217999368597</v>
+        <v>15.0308099310607</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.49144296471873</v>
+        <v>15.31761715088792</v>
       </c>
       <c r="C3">
-        <v>6.097820049468031</v>
+        <v>7.461854550307002</v>
       </c>
       <c r="D3">
-        <v>4.287388104225573</v>
+        <v>4.511138247076593</v>
       </c>
       <c r="E3">
-        <v>6.334340253313053</v>
+        <v>11.41148789700226</v>
       </c>
       <c r="F3">
-        <v>63.2902368290321</v>
+        <v>59.82695907145681</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.327037064199875</v>
+        <v>10.82488498585506</v>
       </c>
       <c r="K3">
-        <v>10.67445659535342</v>
+        <v>15.02419668091874</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.03025329013097</v>
+        <v>15.2838957846525</v>
       </c>
       <c r="C4">
-        <v>5.769951177005136</v>
+        <v>7.463283789944272</v>
       </c>
       <c r="D4">
-        <v>4.144333887457433</v>
+        <v>4.545934970893296</v>
       </c>
       <c r="E4">
-        <v>6.238541335189241</v>
+        <v>11.4435079774898</v>
       </c>
       <c r="F4">
-        <v>61.30277412499861</v>
+        <v>59.22646136410962</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.229375057578133</v>
+        <v>10.82240464489282</v>
       </c>
       <c r="K4">
-        <v>10.34612075773232</v>
+        <v>15.02566999335031</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.8411055472141</v>
+        <v>15.27166667622154</v>
       </c>
       <c r="C5">
-        <v>5.633221549467753</v>
+        <v>7.464919303483766</v>
       </c>
       <c r="D5">
-        <v>4.085105856620127</v>
+        <v>4.560773955365311</v>
       </c>
       <c r="E5">
-        <v>6.201492530142376</v>
+        <v>11.45746059880442</v>
       </c>
       <c r="F5">
-        <v>60.48259893721072</v>
+        <v>58.98092973084028</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.190318097271701</v>
+        <v>10.82179724639114</v>
       </c>
       <c r="K5">
-        <v>10.21294014321943</v>
+        <v>15.02766123609697</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.80963166707389</v>
+        <v>15.26972770708934</v>
       </c>
       <c r="C6">
-        <v>5.610327525556526</v>
+        <v>7.465254364239837</v>
       </c>
       <c r="D6">
-        <v>4.075213684462436</v>
+        <v>4.563277573708235</v>
       </c>
       <c r="E6">
-        <v>6.195460410328116</v>
+        <v>11.45983193716586</v>
       </c>
       <c r="F6">
-        <v>60.3458060902208</v>
+        <v>58.94011588263026</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.183877511668103</v>
+        <v>10.82172075899006</v>
       </c>
       <c r="K6">
-        <v>10.19086822489577</v>
+        <v>15.02807583895394</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.02770696546255</v>
+        <v>15.28372471993644</v>
       </c>
       <c r="C7">
-        <v>5.768119907668778</v>
+        <v>7.463301588364041</v>
       </c>
       <c r="D7">
-        <v>4.1435389426725</v>
+        <v>4.54613243477763</v>
       </c>
       <c r="E7">
-        <v>6.238033641173379</v>
+        <v>11.44369249070263</v>
       </c>
       <c r="F7">
-        <v>61.29175379379713</v>
+        <v>59.2231530924363</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.228845319745803</v>
+        <v>10.82239481969393</v>
       </c>
       <c r="K7">
-        <v>10.34432189866297</v>
+        <v>15.02569121839017</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.97885373589636</v>
+        <v>15.35873794015019</v>
       </c>
       <c r="C8">
-        <v>6.437211564301284</v>
+        <v>7.463938159161071</v>
       </c>
       <c r="D8">
-        <v>4.436968510448287</v>
+        <v>4.476278061671661</v>
       </c>
       <c r="E8">
-        <v>6.443399392869963</v>
+        <v>11.38041901260138</v>
       </c>
       <c r="F8">
-        <v>65.37456330676073</v>
+        <v>60.46433016239353</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.433783903414564</v>
+        <v>10.82890940980138</v>
       </c>
       <c r="K8">
-        <v>11.02647887785758</v>
+        <v>15.02738111146393</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.95287505938569</v>
+        <v>15.55252708302371</v>
       </c>
       <c r="C9">
-        <v>7.657073670630893</v>
+        <v>7.498571413083932</v>
       </c>
       <c r="D9">
-        <v>4.98651107280926</v>
+        <v>4.360601037299803</v>
       </c>
       <c r="E9">
-        <v>6.909669358138087</v>
+        <v>11.28510406073295</v>
       </c>
       <c r="F9">
-        <v>73.02930195181493</v>
+        <v>62.85640637024954</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.859221344840904</v>
+        <v>10.85437582150496</v>
       </c>
       <c r="K9">
-        <v>12.84042574053665</v>
+        <v>15.07457440308378</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.48582736503517</v>
+        <v>15.72231997927087</v>
       </c>
       <c r="C10">
-        <v>8.504024670562368</v>
+        <v>7.544339504150099</v>
       </c>
       <c r="D10">
-        <v>5.378202701999133</v>
+        <v>4.289035790225291</v>
       </c>
       <c r="E10">
-        <v>7.291849168722213</v>
+        <v>11.23278799735221</v>
       </c>
       <c r="F10">
-        <v>78.43390629746237</v>
+        <v>64.57641039704143</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.186785539213989</v>
+        <v>10.8807839374306</v>
       </c>
       <c r="K10">
-        <v>14.17704109964432</v>
+        <v>15.135870637658</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.16244600813847</v>
+        <v>15.80524617340463</v>
       </c>
       <c r="C11">
-        <v>8.880554341465539</v>
+        <v>7.56953299598262</v>
       </c>
       <c r="D11">
-        <v>5.554790471463831</v>
+        <v>4.259491705237365</v>
       </c>
       <c r="E11">
-        <v>7.538549295863343</v>
+        <v>11.21286864452559</v>
       </c>
       <c r="F11">
-        <v>80.84737043137113</v>
+        <v>65.34834109168334</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.339344642793112</v>
+        <v>10.89445734332756</v>
       </c>
       <c r="K11">
-        <v>14.76607596443394</v>
+        <v>15.16948104229522</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.41592208286561</v>
+        <v>15.83744016758586</v>
       </c>
       <c r="C12">
-        <v>9.022070760675737</v>
+        <v>7.579696122334142</v>
       </c>
       <c r="D12">
-        <v>5.62153150132152</v>
+        <v>4.248745649394134</v>
       </c>
       <c r="E12">
-        <v>7.65506535780368</v>
+        <v>11.20588613188439</v>
       </c>
       <c r="F12">
-        <v>81.75522415370217</v>
+        <v>65.638947780851</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.397661449764279</v>
+        <v>10.89987247404844</v>
       </c>
       <c r="K12">
-        <v>14.98664275398063</v>
+        <v>15.18302496355936</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.36144931471562</v>
+        <v>15.83047184032042</v>
       </c>
       <c r="C13">
-        <v>8.991636752630864</v>
+        <v>7.577479719631865</v>
       </c>
       <c r="D13">
-        <v>5.607161588661498</v>
+        <v>4.251040222347037</v>
       </c>
       <c r="E13">
-        <v>7.630017896576651</v>
+        <v>11.2073649717928</v>
       </c>
       <c r="F13">
-        <v>81.55996306487194</v>
+        <v>65.57643936396347</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.385076893140429</v>
+        <v>10.89869569909799</v>
       </c>
       <c r="K13">
-        <v>14.93924614111678</v>
+        <v>15.1800718554839</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.18335313638976</v>
+        <v>15.80787908262963</v>
       </c>
       <c r="C14">
-        <v>8.892217164595525</v>
+        <v>7.570356678564383</v>
       </c>
       <c r="D14">
-        <v>5.560283247638719</v>
+        <v>4.258598719171911</v>
       </c>
       <c r="E14">
-        <v>7.548156250788248</v>
+        <v>11.21228294099428</v>
       </c>
       <c r="F14">
-        <v>80.92217875994747</v>
+        <v>65.37228477515225</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.344131209248356</v>
+        <v>10.89489810220812</v>
       </c>
       <c r="K14">
-        <v>14.78427046726724</v>
+        <v>15.17057899245953</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.07391439652254</v>
+        <v>15.79414265725828</v>
       </c>
       <c r="C15">
-        <v>8.831187018737252</v>
+        <v>7.566074525460975</v>
       </c>
       <c r="D15">
-        <v>5.531555372672989</v>
+        <v>4.263286292624492</v>
       </c>
       <c r="E15">
-        <v>7.497875338033611</v>
+        <v>11.21536840989539</v>
       </c>
       <c r="F15">
-        <v>80.53074214120656</v>
+        <v>65.24700626467285</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.319123174879273</v>
+        <v>10.89260282351217</v>
       </c>
       <c r="K15">
-        <v>14.68902722131446</v>
+        <v>15.16487042503277</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.44121082369734</v>
+        <v>15.71701279791625</v>
       </c>
       <c r="C16">
-        <v>8.47925712874517</v>
+        <v>7.542780577705485</v>
       </c>
       <c r="D16">
-        <v>5.366638412311307</v>
+        <v>4.29102789241262</v>
       </c>
       <c r="E16">
-        <v>7.280085350397146</v>
+        <v>11.2341680698799</v>
       </c>
       <c r="F16">
-        <v>78.27530409416777</v>
+        <v>64.52573454917501</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.176889620791179</v>
+        <v>10.87992363812239</v>
       </c>
       <c r="K16">
-        <v>14.13818408276568</v>
+        <v>15.13378877651074</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.04791301596038</v>
+        <v>15.67113462143466</v>
       </c>
       <c r="C17">
-        <v>8.261244723520624</v>
+        <v>7.529606861266508</v>
       </c>
       <c r="D17">
-        <v>5.265125346771601</v>
+        <v>4.308823789676521</v>
       </c>
       <c r="E17">
-        <v>7.177996692357856</v>
+        <v>11.24669662688739</v>
       </c>
       <c r="F17">
-        <v>76.88034713335642</v>
+        <v>64.08042457533764</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.09056441513585</v>
+        <v>10.87256963262121</v>
       </c>
       <c r="K17">
-        <v>13.79555693868128</v>
+        <v>15.11618327811755</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.81973077913903</v>
+        <v>15.64528363626417</v>
       </c>
       <c r="C18">
-        <v>8.135012787912485</v>
+        <v>7.522441789789378</v>
       </c>
       <c r="D18">
-        <v>5.206580735162768</v>
+        <v>4.319342425389291</v>
       </c>
       <c r="E18">
-        <v>7.120118145251432</v>
+        <v>11.2542677307045</v>
       </c>
       <c r="F18">
-        <v>76.07372212218854</v>
+        <v>63.82331621925715</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.04124363288504</v>
+        <v>10.86849616835249</v>
       </c>
       <c r="K18">
-        <v>13.59668220101474</v>
+        <v>15.10659657147611</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.74212773562368</v>
+        <v>15.63662391933674</v>
       </c>
       <c r="C19">
-        <v>8.092123722323082</v>
+        <v>7.520086754987458</v>
       </c>
       <c r="D19">
-        <v>5.186728766266914</v>
+        <v>4.322952185414088</v>
       </c>
       <c r="E19">
-        <v>7.100664624390246</v>
+        <v>11.25689378317231</v>
       </c>
       <c r="F19">
-        <v>75.79986757754601</v>
+        <v>63.73610190117288</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.024600455569111</v>
+        <v>10.86714385974187</v>
       </c>
       <c r="K19">
-        <v>13.52902978680873</v>
+        <v>15.10344353156659</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.08998231939728</v>
+        <v>15.67596304473768</v>
       </c>
       <c r="C20">
-        <v>8.284537847615752</v>
+        <v>7.530966613262197</v>
       </c>
       <c r="D20">
-        <v>5.275947155385052</v>
+        <v>4.306900044634379</v>
       </c>
       <c r="E20">
-        <v>7.188776970464743</v>
+        <v>11.24532514375554</v>
       </c>
       <c r="F20">
-        <v>77.02928350780195</v>
+        <v>64.12793122869277</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.099719384016897</v>
+        <v>10.87333630563085</v>
       </c>
       <c r="K20">
-        <v>13.83221529922398</v>
+        <v>15.11800162306205</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.2357366915706</v>
+        <v>15.81449385483717</v>
       </c>
       <c r="C21">
-        <v>8.921446392566372</v>
+        <v>7.572432038595419</v>
       </c>
       <c r="D21">
-        <v>5.574055171701818</v>
+        <v>4.256366549242182</v>
       </c>
       <c r="E21">
-        <v>7.572229553775712</v>
+        <v>11.21082318189071</v>
       </c>
       <c r="F21">
-        <v>81.10967203655926</v>
+        <v>65.4322977644627</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.356142783292885</v>
+        <v>10.89600712027858</v>
       </c>
       <c r="K21">
-        <v>14.82985598367043</v>
+        <v>15.17334518286002</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.96869733799548</v>
+        <v>15.90963275039904</v>
       </c>
       <c r="C22">
-        <v>9.331594466413794</v>
+        <v>7.603158946629282</v>
       </c>
       <c r="D22">
-        <v>5.768193216853585</v>
+        <v>4.225918429153674</v>
       </c>
       <c r="E22">
-        <v>7.909488237582946</v>
+        <v>11.1915423493183</v>
       </c>
       <c r="F22">
-        <v>83.74137594575107</v>
+        <v>66.27474392496447</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.526938966257289</v>
+        <v>10.91220623311811</v>
       </c>
       <c r="K22">
-        <v>15.46750977503914</v>
+        <v>15.21426972055908</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.57886350668139</v>
+        <v>15.85844340276871</v>
       </c>
       <c r="C23">
-        <v>9.11317812151661</v>
+        <v>7.586429939292731</v>
       </c>
       <c r="D23">
-        <v>5.664603972309505</v>
+        <v>4.241930321830986</v>
       </c>
       <c r="E23">
-        <v>7.730014318718919</v>
+        <v>11.20153302806633</v>
       </c>
       <c r="F23">
-        <v>82.33980742824312</v>
+        <v>65.82609501794721</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.435472985272305</v>
+        <v>10.90343448904541</v>
       </c>
       <c r="K23">
-        <v>15.12840607177654</v>
+        <v>15.19199518623194</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.0709692524364</v>
+        <v>15.67377847738108</v>
       </c>
       <c r="C24">
-        <v>8.274009823933627</v>
+        <v>7.53035059602268</v>
       </c>
       <c r="D24">
-        <v>5.271055194316483</v>
+        <v>4.3077688748034</v>
       </c>
       <c r="E24">
-        <v>7.183900675888991</v>
+        <v>11.24594404440493</v>
       </c>
       <c r="F24">
-        <v>76.9619638720671</v>
+        <v>64.106456862469</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.095579463479789</v>
+        <v>10.87298921157522</v>
       </c>
       <c r="K24">
-        <v>13.81564797123789</v>
+        <v>15.11717788260918</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.36863134207112</v>
+        <v>15.49520254664401</v>
       </c>
       <c r="C25">
-        <v>7.336298805540865</v>
+        <v>7.485624713897897</v>
       </c>
       <c r="D25">
-        <v>4.840266640226554</v>
+        <v>4.389569891708596</v>
       </c>
       <c r="E25">
-        <v>6.776657295037723</v>
+        <v>11.30779105151969</v>
       </c>
       <c r="F25">
-        <v>70.99725474079598</v>
+        <v>62.21502169856142</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.741563635952107</v>
+        <v>10.84613109414047</v>
       </c>
       <c r="K25">
-        <v>12.32991130710262</v>
+        <v>15.05711738057904</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_133/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_133/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.38225564643511</v>
+        <v>13.23341606851212</v>
       </c>
       <c r="C2">
-        <v>7.466367187507856</v>
+        <v>6.612045693998623</v>
       </c>
       <c r="D2">
-        <v>4.458777462262016</v>
+        <v>4.514604457654039</v>
       </c>
       <c r="E2">
-        <v>11.36521475653975</v>
+        <v>6.503320209862423</v>
       </c>
       <c r="F2">
-        <v>60.79824859264365</v>
+        <v>66.45754811623488</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.83153443283545</v>
+        <v>7.490894040622766</v>
       </c>
       <c r="K2">
-        <v>15.0308099310607</v>
+        <v>11.21217999368593</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.31761715088792</v>
+        <v>12.49144296471876</v>
       </c>
       <c r="C3">
-        <v>7.461854550307002</v>
+        <v>6.097820049468152</v>
       </c>
       <c r="D3">
-        <v>4.511138247076593</v>
+        <v>4.287388104225614</v>
       </c>
       <c r="E3">
-        <v>11.41148789700226</v>
+        <v>6.334340253313074</v>
       </c>
       <c r="F3">
-        <v>59.82695907145681</v>
+        <v>63.29023682903198</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.82488498585506</v>
+        <v>7.327037064199889</v>
       </c>
       <c r="K3">
-        <v>15.02419668091874</v>
+        <v>10.67445659535345</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.2838957846525</v>
+        <v>12.03025329013097</v>
       </c>
       <c r="C4">
-        <v>7.463283789944272</v>
+        <v>5.769951177004931</v>
       </c>
       <c r="D4">
-        <v>4.545934970893296</v>
+        <v>4.144333887457454</v>
       </c>
       <c r="E4">
-        <v>11.4435079774898</v>
+        <v>6.238541335189328</v>
       </c>
       <c r="F4">
-        <v>59.22646136410962</v>
+        <v>61.30277412499881</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.82240464489282</v>
+        <v>7.229375057578189</v>
       </c>
       <c r="K4">
-        <v>15.02566999335031</v>
+        <v>10.3461207577323</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.27166667622154</v>
+        <v>11.84110554721411</v>
       </c>
       <c r="C5">
-        <v>7.464919303483766</v>
+        <v>5.633221549467768</v>
       </c>
       <c r="D5">
-        <v>4.560773955365311</v>
+        <v>4.085105856620159</v>
       </c>
       <c r="E5">
-        <v>11.45746059880442</v>
+        <v>6.201492530142401</v>
       </c>
       <c r="F5">
-        <v>58.98092973084028</v>
+        <v>60.48259893721066</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.82179724639114</v>
+        <v>7.190318097271767</v>
       </c>
       <c r="K5">
-        <v>15.02766123609697</v>
+        <v>10.21294014321947</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.26972770708934</v>
+        <v>11.8096316670738</v>
       </c>
       <c r="C6">
-        <v>7.465254364239837</v>
+        <v>5.610327525556708</v>
       </c>
       <c r="D6">
-        <v>4.563277573708235</v>
+        <v>4.075213684462477</v>
       </c>
       <c r="E6">
-        <v>11.45983193716586</v>
+        <v>6.195460410328</v>
       </c>
       <c r="F6">
-        <v>58.94011588263026</v>
+        <v>60.3458060902209</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.82172075899006</v>
+        <v>7.183877511668069</v>
       </c>
       <c r="K6">
-        <v>15.02807583895394</v>
+        <v>10.19086822489569</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.28372471993644</v>
+        <v>12.02770696546255</v>
       </c>
       <c r="C7">
-        <v>7.463301588364041</v>
+        <v>5.768119907668794</v>
       </c>
       <c r="D7">
-        <v>4.54613243477763</v>
+        <v>4.143538942672385</v>
       </c>
       <c r="E7">
-        <v>11.44369249070263</v>
+        <v>6.238033641173266</v>
       </c>
       <c r="F7">
-        <v>59.2231530924363</v>
+        <v>61.29175379379723</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.82239481969393</v>
+        <v>7.228845319745672</v>
       </c>
       <c r="K7">
-        <v>15.02569121839017</v>
+        <v>10.34432189866299</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.35873794015019</v>
+        <v>12.97885373589638</v>
       </c>
       <c r="C8">
-        <v>7.463938159161071</v>
+        <v>6.437211564301094</v>
       </c>
       <c r="D8">
-        <v>4.476278061671661</v>
+        <v>4.436968510448276</v>
       </c>
       <c r="E8">
-        <v>11.38041901260138</v>
+        <v>6.443399392869923</v>
       </c>
       <c r="F8">
-        <v>60.46433016239353</v>
+        <v>65.37456330676079</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.82890940980138</v>
+        <v>7.433783903414566</v>
       </c>
       <c r="K8">
-        <v>15.02738111146393</v>
+        <v>11.02647887785762</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.55252708302371</v>
+        <v>14.95287505938555</v>
       </c>
       <c r="C9">
-        <v>7.498571413083932</v>
+        <v>7.65707367063092</v>
       </c>
       <c r="D9">
-        <v>4.360601037299803</v>
+        <v>4.986511072809166</v>
       </c>
       <c r="E9">
-        <v>11.28510406073295</v>
+        <v>6.909669358138125</v>
       </c>
       <c r="F9">
-        <v>62.85640637024954</v>
+        <v>73.02930195181438</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.85437582150496</v>
+        <v>7.859221344840897</v>
       </c>
       <c r="K9">
-        <v>15.07457440308378</v>
+        <v>12.84042574053658</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.72231997927087</v>
+        <v>16.48582736503511</v>
       </c>
       <c r="C10">
-        <v>7.544339504150099</v>
+        <v>8.504024670562448</v>
       </c>
       <c r="D10">
-        <v>4.289035790225291</v>
+        <v>5.378202701999128</v>
       </c>
       <c r="E10">
-        <v>11.23278799735221</v>
+        <v>7.291849168722218</v>
       </c>
       <c r="F10">
-        <v>64.57641039704143</v>
+        <v>78.43390629746193</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.8807839374306</v>
+        <v>8.186785539213945</v>
       </c>
       <c r="K10">
-        <v>15.135870637658</v>
+        <v>14.1770410996443</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.80524617340463</v>
+        <v>17.1624460081385</v>
       </c>
       <c r="C11">
-        <v>7.56953299598262</v>
+        <v>8.880554341465745</v>
       </c>
       <c r="D11">
-        <v>4.259491705237365</v>
+        <v>5.554790471464051</v>
       </c>
       <c r="E11">
-        <v>11.21286864452559</v>
+        <v>7.538549295863309</v>
       </c>
       <c r="F11">
-        <v>65.34834109168334</v>
+        <v>80.84737043137123</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.89445734332756</v>
+        <v>8.339344642793154</v>
       </c>
       <c r="K11">
-        <v>15.16948104229522</v>
+        <v>14.76607596443402</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.83744016758586</v>
+        <v>17.41592208286559</v>
       </c>
       <c r="C12">
-        <v>7.579696122334142</v>
+        <v>9.02207076067582</v>
       </c>
       <c r="D12">
-        <v>4.248745649394134</v>
+        <v>5.621531501321614</v>
       </c>
       <c r="E12">
-        <v>11.20588613188439</v>
+        <v>7.655065357803769</v>
       </c>
       <c r="F12">
-        <v>65.638947780851</v>
+        <v>81.75522415370253</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.89987247404844</v>
+        <v>8.397661449764303</v>
       </c>
       <c r="K12">
-        <v>15.18302496355936</v>
+        <v>14.98664275398067</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.83047184032042</v>
+        <v>17.36144931471551</v>
       </c>
       <c r="C13">
-        <v>7.577479719631865</v>
+        <v>8.991636752630971</v>
       </c>
       <c r="D13">
-        <v>4.251040222347037</v>
+        <v>5.607161588661564</v>
       </c>
       <c r="E13">
-        <v>11.2073649717928</v>
+        <v>7.630017896576695</v>
       </c>
       <c r="F13">
-        <v>65.57643936396347</v>
+        <v>81.55996306487179</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.89869569909799</v>
+        <v>8.385076893140473</v>
       </c>
       <c r="K13">
-        <v>15.1800718554839</v>
+        <v>14.93924614111668</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.80787908262963</v>
+        <v>17.18335313638968</v>
       </c>
       <c r="C14">
-        <v>7.570356678564383</v>
+        <v>8.892217164595923</v>
       </c>
       <c r="D14">
-        <v>4.258598719171911</v>
+        <v>5.560283247638813</v>
       </c>
       <c r="E14">
-        <v>11.21228294099428</v>
+        <v>7.548156250788288</v>
       </c>
       <c r="F14">
-        <v>65.37228477515225</v>
+        <v>80.92217875994773</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.89489810220812</v>
+        <v>8.344131209248332</v>
       </c>
       <c r="K14">
-        <v>15.17057899245953</v>
+        <v>14.78427046726728</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79414265725828</v>
+        <v>17.07391439652256</v>
       </c>
       <c r="C15">
-        <v>7.566074525460975</v>
+        <v>8.831187018737305</v>
       </c>
       <c r="D15">
-        <v>4.263286292624492</v>
+        <v>5.531555372672843</v>
       </c>
       <c r="E15">
-        <v>11.21536840989539</v>
+        <v>7.497875338033552</v>
       </c>
       <c r="F15">
-        <v>65.24700626467285</v>
+        <v>80.53074214120657</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.89260282351217</v>
+        <v>8.31912317487925</v>
       </c>
       <c r="K15">
-        <v>15.16487042503277</v>
+        <v>14.68902722131452</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.71701279791625</v>
+        <v>16.44121082369721</v>
       </c>
       <c r="C16">
-        <v>7.542780577705485</v>
+        <v>8.479257128745195</v>
       </c>
       <c r="D16">
-        <v>4.29102789241262</v>
+        <v>5.366638412311313</v>
       </c>
       <c r="E16">
-        <v>11.2341680698799</v>
+        <v>7.280085350397206</v>
       </c>
       <c r="F16">
-        <v>64.52573454917501</v>
+        <v>78.27530409416705</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.87992363812239</v>
+        <v>8.176889620791179</v>
       </c>
       <c r="K16">
-        <v>15.13378877651074</v>
+        <v>14.13818408276558</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.67113462143466</v>
+        <v>16.04791301596049</v>
       </c>
       <c r="C17">
-        <v>7.529606861266508</v>
+        <v>8.261244723520566</v>
       </c>
       <c r="D17">
-        <v>4.308823789676521</v>
+        <v>5.265125346771628</v>
       </c>
       <c r="E17">
-        <v>11.24669662688739</v>
+        <v>7.17799669235783</v>
       </c>
       <c r="F17">
-        <v>64.08042457533764</v>
+        <v>76.88034713335699</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.87256963262121</v>
+        <v>8.090564415135868</v>
       </c>
       <c r="K17">
-        <v>15.11618327811755</v>
+        <v>13.79555693868135</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.64528363626417</v>
+        <v>15.81973077913907</v>
       </c>
       <c r="C18">
-        <v>7.522441789789378</v>
+        <v>8.135012787912459</v>
       </c>
       <c r="D18">
-        <v>4.319342425389291</v>
+        <v>5.206580735162851</v>
       </c>
       <c r="E18">
-        <v>11.2542677307045</v>
+        <v>7.12011814525138</v>
       </c>
       <c r="F18">
-        <v>63.82331621925715</v>
+        <v>76.07372212218905</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.86849616835249</v>
+        <v>8.041243632885051</v>
       </c>
       <c r="K18">
-        <v>15.10659657147611</v>
+        <v>13.59668220101477</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.63662391933674</v>
+        <v>15.7421277356238</v>
       </c>
       <c r="C19">
-        <v>7.520086754987458</v>
+        <v>8.092123722322986</v>
       </c>
       <c r="D19">
-        <v>4.322952185414088</v>
+        <v>5.186728766267104</v>
       </c>
       <c r="E19">
-        <v>11.25689378317231</v>
+        <v>7.100664624390235</v>
       </c>
       <c r="F19">
-        <v>63.73610190117288</v>
+        <v>75.79986757754661</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.86714385974187</v>
+        <v>8.024600455569169</v>
       </c>
       <c r="K19">
-        <v>15.10344353156659</v>
+        <v>13.52902978680877</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.67596304473768</v>
+        <v>16.0899823193973</v>
       </c>
       <c r="C20">
-        <v>7.530966613262197</v>
+        <v>8.284537847615553</v>
       </c>
       <c r="D20">
-        <v>4.306900044634379</v>
+        <v>5.275947155385203</v>
       </c>
       <c r="E20">
-        <v>11.24532514375554</v>
+        <v>7.188776970464763</v>
       </c>
       <c r="F20">
-        <v>64.12793122869277</v>
+        <v>77.02928350780208</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.87333630563085</v>
+        <v>8.099719384016948</v>
       </c>
       <c r="K20">
-        <v>15.11800162306205</v>
+        <v>13.83221529922393</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.81449385483717</v>
+        <v>17.23573669157054</v>
       </c>
       <c r="C21">
-        <v>7.572432038595419</v>
+        <v>8.921446392566398</v>
       </c>
       <c r="D21">
-        <v>4.256366549242182</v>
+        <v>5.574055171702062</v>
       </c>
       <c r="E21">
-        <v>11.21082318189071</v>
+        <v>7.572229553775747</v>
       </c>
       <c r="F21">
-        <v>65.4322977644627</v>
+        <v>81.10967203655966</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.89600712027858</v>
+        <v>8.356142783292908</v>
       </c>
       <c r="K21">
-        <v>15.17334518286002</v>
+        <v>14.82985598367036</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.90963275039904</v>
+        <v>17.96869733799548</v>
       </c>
       <c r="C22">
-        <v>7.603158946629282</v>
+        <v>9.331594466413794</v>
       </c>
       <c r="D22">
-        <v>4.225918429153674</v>
+        <v>5.768193216853573</v>
       </c>
       <c r="E22">
-        <v>11.1915423493183</v>
+        <v>7.909488237583032</v>
       </c>
       <c r="F22">
-        <v>66.27474392496447</v>
+        <v>83.74137594575105</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.91220623311811</v>
+        <v>8.52693896625728</v>
       </c>
       <c r="K22">
-        <v>15.21426972055908</v>
+        <v>15.46750977503911</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.85844340276871</v>
+        <v>17.57886350668144</v>
       </c>
       <c r="C23">
-        <v>7.586429939292731</v>
+        <v>9.113178121516627</v>
       </c>
       <c r="D23">
-        <v>4.241930321830986</v>
+        <v>5.664603972309422</v>
       </c>
       <c r="E23">
-        <v>11.20153302806633</v>
+        <v>7.730014318718847</v>
       </c>
       <c r="F23">
-        <v>65.82609501794721</v>
+        <v>82.33980742824306</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.90343448904541</v>
+        <v>8.435472985272295</v>
       </c>
       <c r="K23">
-        <v>15.19199518623194</v>
+        <v>15.12840607177656</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.67377847738108</v>
+        <v>16.07096925243653</v>
       </c>
       <c r="C24">
-        <v>7.53035059602268</v>
+        <v>8.274009823933625</v>
       </c>
       <c r="D24">
-        <v>4.3077688748034</v>
+        <v>5.271055194316474</v>
       </c>
       <c r="E24">
-        <v>11.24594404440493</v>
+        <v>7.183900675888884</v>
       </c>
       <c r="F24">
-        <v>64.106456862469</v>
+        <v>76.96196387206781</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.87298921157522</v>
+        <v>8.095579463479732</v>
       </c>
       <c r="K24">
-        <v>15.11717788260918</v>
+        <v>13.81564797123796</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.49520254664401</v>
+        <v>14.36863134207118</v>
       </c>
       <c r="C25">
-        <v>7.485624713897897</v>
+        <v>7.336298805540794</v>
       </c>
       <c r="D25">
-        <v>4.389569891708596</v>
+        <v>4.84026664022677</v>
       </c>
       <c r="E25">
-        <v>11.30779105151969</v>
+        <v>6.776657295037633</v>
       </c>
       <c r="F25">
-        <v>62.21502169856142</v>
+        <v>70.99725474079634</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.84613109414047</v>
+        <v>7.741563635952107</v>
       </c>
       <c r="K25">
-        <v>15.05711738057904</v>
+        <v>12.32991130710266</v>
       </c>
       <c r="L25">
         <v>0</v>
